--- a/PersonalInfo/腾讯云服务器_HZP.xlsx
+++ b/PersonalInfo/腾讯云服务器_HZP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>服务器名称</t>
   </si>
@@ -81,6 +81,14 @@
       </rPr>
       <t xml:space="preserve"> YSSYvVbPH9</t>
     </r>
+  </si>
+  <si>
+    <t>user:medi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd:medi.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,16 +521,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
@@ -544,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" thickBot="1">
+    <row r="2" spans="1:5" ht="29.25" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -564,6 +572,14 @@
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
